--- a/Specials.xlsx
+++ b/Specials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkolbush/Repos/MeleeFrameDataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2C9EA-69FA-4B49-909B-034671A0AD71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC8D5ED-FD20-9447-AB77-BDFCC15C2332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="21000" activeTab="3" xr2:uid="{A8487134-3394-014C-87A1-D3E95C30A43D}"/>
   </bookViews>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
